--- a/专家费用管理/登记模板.xlsx
+++ b/专家费用管理/登记模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,11 +32,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目名称</t>
+    <t>专家费用登记表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专家费用登记表</t>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>2017年3月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -44,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -125,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,9 +161,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -192,17 +232,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,11 +242,38 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -566,393 +624,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.75" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="42.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/专家费用管理/登记模板.xlsx
+++ b/专家费用管理/登记模板.xlsx
@@ -236,44 +236,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -632,392 +637,393 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="42.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>

--- a/专家费用管理/登记模板.xlsx
+++ b/专家费用管理/登记模板.xlsx
@@ -248,9 +248,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,6 +255,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -270,14 +278,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -632,7 +632,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -645,382 +645,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
